--- a/5_results/5_3_mix/feature_importance_set_9.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_9.xlsx
@@ -472,122 +472,122 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04158440195985443</v>
+        <v>0.03840533136360173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003393694127706248</v>
+        <v>0.007354957015982818</v>
       </c>
       <c r="D2" t="n">
-        <v>5.275982901944052e-06</v>
+        <v>0.0001538124019786774</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04857206507463916</v>
+        <v>0.05354928951581942</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03459673884506969</v>
+        <v>0.02326137321138404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006355514070498414</v>
+        <v>0.006767842553755754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009769548558074331</v>
+        <v>0.003487520755092312</v>
       </c>
       <c r="D3" t="n">
-        <v>6.494059313554633e-05</v>
+        <v>0.006129901491089463</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008367077621556996</v>
+        <v>0.0139486959911502</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004343950519439832</v>
+        <v>-0.0004130108836386918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005599000276605958</v>
+        <v>0.0007547502698933117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001017541886051194</v>
+        <v>0.0002435316680148178</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001253318003696924</v>
+        <v>0.001138111947715589</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007694133083908816</v>
+        <v>0.001256185340301178</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0035038674693031</v>
+        <v>0.0002533151994854457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003841505838235149</v>
+        <v>0.0002889637249477994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004410860576823082</v>
+        <v>9.755548773974743e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049616645419445e-05</v>
+        <v>0.001347528129874794</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004749708127460214</v>
+        <v>0.0004898318225640714</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002933303549010083</v>
+        <v>8.809562733152749e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002411080292199119</v>
+        <v>0.0001182197329972601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005497262929255365</v>
+        <v>6.56421636005616e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003029722053891855</v>
+        <v>0.007885710211801953</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003542974327357616</v>
+        <v>0.0002533778551219339</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001279186257040623</v>
+        <v>-1.693838912741371e-05</v>
       </c>
     </row>
     <row r="7">
@@ -597,347 +597,347 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002040096447742168</v>
+        <v>4.261456902479033e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007127919645029976</v>
+        <v>5.199690050237491e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001530566314386473</v>
+        <v>0.07040171991265015</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003507744954485752</v>
+        <v>0.0001496769058327193</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005724479409985838</v>
+        <v>-6.444776778313861e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0015382365648692</v>
+        <v>2.318863997410325e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002583391655439511</v>
+        <v>2.289301522185431e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19795089689453e-05</v>
+        <v>0.04310400167065771</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002070160477350916</v>
+        <v>7.032567473099735e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001006312652387483</v>
+        <v>-2.394839478279084e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007270523388692273</v>
+        <v>1.332267629550188e-16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001407994820809989</v>
+        <v>4.965068306494546e-17</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001606616729593596</v>
+        <v>0.001941268523480256</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001016960418529656</v>
+        <v>2.354582056311093e-16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004371442592087992</v>
+        <v>3.099532027892822e-17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006911130857312653</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002988730488532078</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003324438938344789</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001306496824184546</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="G10" t="n">
-        <v>7.572934727798466e-05</v>
+        <v>1.110223024625157e-16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000689244656025978</v>
+        <v>8.881784197001253e-17</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003749185516183605</v>
+        <v>4.965068306494547e-17</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007361541192321254</v>
+        <v>0.008065044950046269</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001461207135733253</v>
+        <v>1.910492846461031e-16</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.271782368129738e-05</v>
+        <v>-1.341360070607806e-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006432309375584034</v>
+        <v>8.881784197001253e-17</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001352088690467999</v>
+        <v>9.288792252416251e-17</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002210914943133378</v>
+        <v>0.04965034160686339</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009216278677109319</v>
+        <v>2.80075358294788e-16</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003648340074058748</v>
+        <v>-1.02439674354763e-16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006349608739541601</v>
+        <v>8.881784197001253e-17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000151131177144188</v>
+        <v>4.965068306494546e-17</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003576817897864343</v>
+        <v>0.008065044950046259</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009461420565488959</v>
+        <v>1.910492846461031e-16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003237796913594244</v>
+        <v>-1.341360070607804e-17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006156660933721136</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001361221569887476</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002689837702314769</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008959434960200934</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003353886907241338</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006100681075882575</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002051687802818091</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001328320480793325</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001032513461922402</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001876227532541131</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000442086253870122</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C16" t="n">
-        <v>5.805510033411741e-05</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D16" t="n">
-        <v>3.488142233932471e-05</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005616225078648289</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003225499998754152</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003082613827708469</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000121526066431917</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002383135157952939</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000558485233222902</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G17" t="n">
-        <v>5.80375323187919e-05</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001597350345090787</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001155781000197108</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01828070102036488</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003977119399087688</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.824187089061144e-05</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000146982894440284</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C19" t="n">
-        <v>7.922796989356868e-05</v>
+        <v>9.93013661298909e-17</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007139809830238195</v>
+        <v>0.1039999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003101143794980574</v>
+        <v>2.710762668296905e-16</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.614859061748941e-05</v>
+        <v>-1.378495038746717e-16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.646125103264236e-05</v>
+        <v>4.440892098500626e-17</v>
       </c>
       <c r="C20" t="n">
-        <v>5.607943677474992e-05</v>
+        <v>9.930136612989094e-17</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009180858145635736</v>
+        <v>0.1869504831500295</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0002119295864520392</v>
+        <v>2.488718063371874e-16</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.900708438675453e-05</v>
+        <v>-1.600539643671749e-16</v>
       </c>
     </row>
   </sheetData>

--- a/5_results/5_3_mix/feature_importance_set_9.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_9.xlsx
@@ -472,147 +472,147 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03840533136360173</v>
+        <v>0.03024676883804023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007354957015982818</v>
+        <v>0.000758573939890547</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001538124019786774</v>
+        <v>4.743433786837622e-08</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05354928951581942</v>
+        <v>0.03180868306488092</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02326137321138404</v>
+        <v>0.02868485461119953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006767842553755754</v>
+        <v>0.01393072374781974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003487520755092312</v>
+        <v>0.002482511412827986</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006129901491089463</v>
+        <v>0.0001160600471452824</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0139486959911502</v>
+        <v>0.01904224905878665</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0004130108836386918</v>
+        <v>0.008819198436852829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0007547502698933117</v>
+        <v>0.0105716936364842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002435316680148178</v>
+        <v>0.001783532609872864</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001138111947715589</v>
+        <v>9.363169900726496e-05</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001256185340301178</v>
+        <v>0.01424401193125278</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002533151994854457</v>
+        <v>0.006899375341715619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002889637249477994</v>
+        <v>0.0096152573226439</v>
       </c>
       <c r="C5" t="n">
-        <v>9.755548773974743e-05</v>
+        <v>0.00144327699645353</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001347528129874794</v>
+        <v>5.912906790715371e-05</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004898318225640714</v>
+        <v>0.01258698460654972</v>
       </c>
       <c r="G5" t="n">
-        <v>8.809562733152749e-05</v>
+        <v>0.006643530038738076</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001182197329972601</v>
+        <v>0.009512537815239063</v>
       </c>
       <c r="C6" t="n">
-        <v>6.56421636005616e-05</v>
+        <v>0.001811656756780173</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007885710211801953</v>
+        <v>0.0001505160782924236</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002533778551219339</v>
+        <v>0.01324276411720682</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.693838912741371e-05</v>
+        <v>0.005782311513271311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.261456902479033e-05</v>
+        <v>0.009228552429619685</v>
       </c>
       <c r="C7" t="n">
-        <v>5.199690050237491e-05</v>
+        <v>0.00071150145659277</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07040171991265015</v>
+        <v>4.206451926186997e-06</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0001496769058327193</v>
+        <v>0.0106935437627394</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.444776778313861e-05</v>
+        <v>0.007763561096499973</v>
       </c>
     </row>
     <row r="8">
@@ -622,322 +622,322 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.318863997410325e-05</v>
+        <v>0.009061296413171948</v>
       </c>
       <c r="C8" t="n">
-        <v>2.289301522185431e-05</v>
+        <v>0.0006608424765475428</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04310400167065771</v>
+        <v>3.370839292155723e-06</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>7.032567473099735e-05</v>
+        <v>0.01042198020619702</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.394839478279084e-05</v>
+        <v>0.007700612620146873</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.332267629550188e-16</v>
+        <v>0.007830068401246493</v>
       </c>
       <c r="C9" t="n">
-        <v>4.965068306494546e-17</v>
+        <v>0.001237669641314</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001941268523480256</v>
+        <v>7.24781321109592e-05</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>2.354582056311093e-16</v>
+        <v>0.01037844729912438</v>
       </c>
       <c r="G9" t="n">
-        <v>3.099532027892822e-17</v>
+        <v>0.005281689503368611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.006875826603863255</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.001151368078265456</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>9.092294262031502e-05</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.009246509390609822</v>
       </c>
       <c r="G10" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.004505143817116688</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.881784197001253e-17</v>
+        <v>0.006794054650060666</v>
       </c>
       <c r="C11" t="n">
-        <v>4.965068306494547e-17</v>
+        <v>0.001149058350504764</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008065044950046269</v>
+        <v>9.454726936542885e-05</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>1.910492846461031e-16</v>
+        <v>0.009159981675424138</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.341360070607806e-17</v>
+        <v>0.004428127624697194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.881784197001253e-17</v>
+        <v>0.005946729750555968</v>
       </c>
       <c r="C12" t="n">
-        <v>9.288792252416251e-17</v>
+        <v>0.001292324561831323</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04965034160686339</v>
+        <v>0.0002515886223274834</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>2.80075358294788e-16</v>
+        <v>0.008607643885190298</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.02439674354763e-16</v>
+        <v>0.003285815615921638</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.881784197001253e-17</v>
+        <v>0.004505484691562112</v>
       </c>
       <c r="C13" t="n">
-        <v>4.965068306494546e-17</v>
+        <v>0.0008771119304857659</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008065044950046259</v>
+        <v>0.0001639842571408048</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>1.910492846461031e-16</v>
+        <v>0.006311470279407502</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.341360070607804e-17</v>
+        <v>0.002699499103716722</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.003549414679773277</v>
       </c>
       <c r="C14" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0004198774588642068</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03524199845510997</v>
+        <v>2.306664908277377e-05</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.004413948170897885</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.00268488118864867</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.002942811045494586</v>
       </c>
       <c r="C15" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0005411687277614203</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.0001312591702954138</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.004057084935702048</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.001828537155287125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.002565763861216164</v>
       </c>
       <c r="C16" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.000441996050750261</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.0001016240452484526</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.003475839838745585</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.001655687883686743</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.002336992502670965</v>
       </c>
       <c r="C17" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0001471968663540675</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03524199845510997</v>
+        <v>1.878678555933035e-06</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.002640072884970888</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.002033912120371041</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.001802633722531777</v>
       </c>
       <c r="C18" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0002277203745182687</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03524199845510997</v>
+        <v>2.99208586272374e-05</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.002271513121094948</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.001333754323968605</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.001448341431013422</v>
       </c>
       <c r="C19" t="n">
-        <v>9.93013661298909e-17</v>
+        <v>0.0004380475167444104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1039999999999999</v>
+        <v>0.0008924546037054536</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>2.710762668296905e-16</v>
+        <v>0.002350287322450257</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.378495038746717e-16</v>
+        <v>0.0005463955395765872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.440892098500626e-17</v>
+        <v>0.001228531245668108</v>
       </c>
       <c r="C20" t="n">
-        <v>9.930136612989094e-17</v>
+        <v>0.0003247529049335623</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.0005350957624282761</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>2.488718063371874e-16</v>
+        <v>0.001897201965488462</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.600539643671749e-16</v>
+        <v>0.0005598605258477533</v>
       </c>
     </row>
   </sheetData>
